--- a/biology/Botanique/Labourdonnaisia_calophylloides/Labourdonnaisia_calophylloides.xlsx
+++ b/biology/Botanique/Labourdonnaisia_calophylloides/Labourdonnaisia_calophylloides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Labourdonnaisia calophylloides, connue en français sous les noms de Labourdonnaisie faux-calophylle[1], Petit natte[1],[2], Petit natte blanc[1],[2], Ti natte (Réunion)[2] ou encore Natte à petites feuilles[1] (Réunion, Maurice)[2], est une espèce de plantes à fleurs de la famille des Sapotaceae. C'est un arbre ou un arbuste endémique des îles de La Réunion et de Maurice.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Labourdonnaisia calophylloides, connue en français sous les noms de Labourdonnaisie faux-calophylle, Petit natte Petit natte blanc Ti natte (Réunion) ou encore Natte à petites feuilles (Réunion, Maurice), est une espèce de plantes à fleurs de la famille des Sapotaceae. C'est un arbre ou un arbuste endémique des îles de La Réunion et de Maurice.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbuste peut atteindre une hauteur de 20 mètres à l'état sauvage et développe une forme très caractéristique et ornementale, car ses feuilles se regroupent à l'extrémité de chaque rameau.
-Son bois est de couleur rouge foncé et à grain fin[3].
+Son bois est de couleur rouge foncé et à grain fin.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il était autrefois répandu dans les îles Mascareignes[4].
-À l'état sauvage, il est encore présent à Maurice à Grand Bassin, Petrin, et est localement commun dans les forêts en reconstitution de Monvert. Il est aussi présent à La Réunion[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il était autrefois répandu dans les îles Mascareignes.
+À l'état sauvage, il est encore présent à Maurice à Grand Bassin, Petrin, et est localement commun dans les forêts en reconstitution de Monvert. Il est aussi présent à La Réunion.
 </t>
         </is>
       </c>
